--- a/years/2000.xlsx
+++ b/years/2000.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="dUqpgCOh" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -298,8 +299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,7 +837,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -862,6 +863,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -869,7 +875,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,6 +922,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -995,6 +1005,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1029,6 +1040,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1204,2773 +1216,2808 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:10">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B14" s="5">
         <v>67803927</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C14" s="5">
         <v>34346735</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D14" s="5">
         <v>33457192</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E14" s="5">
         <v>44006184</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F14" s="5">
         <v>22427541</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G14" s="5">
         <v>21578643</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H14" s="5">
         <v>23797743</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I14" s="5">
         <v>11919194</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J14" s="5">
         <v>11878549</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B15" s="7">
         <v>1849478</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C15" s="7">
         <v>920001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D15" s="7">
         <v>929477</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E15" s="7">
         <v>1397853</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F15" s="7">
         <v>693586</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G15" s="7">
         <v>704267</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H15" s="7">
         <v>451625</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I15" s="7">
         <v>226415</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J15" s="7">
         <v>225210</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B16" s="7">
         <v>623811</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C16" s="7">
         <v>313362</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D16" s="7">
         <v>310449</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E16" s="7">
         <v>338939</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F16" s="7">
         <v>173772</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G16" s="7">
         <v>165167</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H16" s="7">
         <v>284872</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I16" s="7">
         <v>139590</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J16" s="7">
         <v>145282</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B17" s="7">
         <v>812416</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C17" s="7">
         <v>409311</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D17" s="7">
         <v>403105</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E17" s="7">
         <v>371868</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F17" s="7">
         <v>189637</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G17" s="7">
         <v>182231</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H17" s="7">
         <v>440548</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I17" s="7">
         <v>219674</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J17" s="7">
         <v>220874</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B18" s="7">
         <v>528744</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C18" s="7">
         <v>273895</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>254849</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E18" s="7">
         <v>252309</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F18" s="7">
         <v>138049</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G18" s="7">
         <v>114260</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H18" s="7">
         <v>276435</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>135846</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J18" s="7">
         <v>140589</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B19" s="7">
         <v>365231</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C19" s="7">
         <v>185594</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D19" s="7">
         <v>179637</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E19" s="7">
         <v>196621</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F19" s="7">
         <v>102248</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G19" s="7">
         <v>94373</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H19" s="7">
         <v>168610</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I19" s="7">
         <v>83346</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J19" s="7">
         <v>85264</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B20" s="7">
         <v>4007860</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C20" s="7">
         <v>2027105</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D20" s="7">
         <v>1980755</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E20" s="7">
         <v>3540522</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F20" s="7">
         <v>1785489</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G20" s="7">
         <v>1755033</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H20" s="7">
         <v>467338</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I20" s="7">
         <v>241616</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J20" s="7">
         <v>225722</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B21" s="7">
         <v>1719751</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C21" s="7">
         <v>885826</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D21" s="7">
         <v>833925</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E21" s="7">
         <v>936240</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F21" s="7">
         <v>477567</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G21" s="7">
         <v>458673</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H21" s="7">
         <v>783511</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I21" s="7">
         <v>408259</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J21" s="7">
         <v>375252</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B22" s="7">
         <v>191934</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C22" s="7">
         <v>96599</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D22" s="7">
         <v>95335</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E22" s="7">
         <v>84198</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F22" s="7">
         <v>44471</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G22" s="7">
         <v>39727</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H22" s="7">
         <v>107736</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I22" s="7">
         <v>52128</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J22" s="7">
         <v>55608</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B23" s="7">
         <v>950757</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C23" s="7">
         <v>475817</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D23" s="7">
         <v>474940</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E23" s="7">
         <v>493114</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F23" s="7">
         <v>247560</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G23" s="7">
         <v>245554</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H23" s="7">
         <v>457643</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I23" s="7">
         <v>228257</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J23" s="7">
         <v>229386</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B24" s="7">
         <v>1076347</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C24" s="7">
         <v>542681</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D24" s="7">
         <v>533666</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E24" s="7">
         <v>577595</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F24" s="7">
         <v>293161</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G24" s="7">
         <v>284434</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H24" s="7">
         <v>498752</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I24" s="7">
         <v>249520</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J24" s="7">
         <v>249232</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B25" s="7">
         <v>194326</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C25" s="7">
         <v>101919</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D25" s="7">
         <v>92407</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E25" s="7">
         <v>124380</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F25" s="7">
         <v>67104</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G25" s="7">
         <v>57276</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H25" s="7">
         <v>69946</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I25" s="7">
         <v>34815</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J25" s="7">
         <v>35131</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B26" s="7">
         <v>253739</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C26" s="7">
         <v>131440</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D26" s="7">
         <v>122299</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E26" s="7">
         <v>123470</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F26" s="7">
         <v>66573</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G26" s="7">
         <v>56897</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H26" s="7">
         <v>130269</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I26" s="7">
         <v>64867</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J26" s="7">
         <v>65402</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B27" s="7">
         <v>388678</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C27" s="7">
         <v>205820</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>182858</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E27" s="7">
         <v>219511</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F27" s="7">
         <v>119958</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G27" s="7">
         <v>99553</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H27" s="7">
         <v>169167</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>85862</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J27" s="7">
         <v>83305</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B28" s="7">
         <v>270654</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C28" s="7">
         <v>137153</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D28" s="7">
         <v>133501</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E28" s="7">
         <v>142685</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F28" s="7">
         <v>76166</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G28" s="7">
         <v>66519</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H28" s="7">
         <v>127969</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I28" s="7">
         <v>60987</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J28" s="7">
         <v>66982</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B29" s="7">
         <v>256803</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C29" s="7">
         <v>129007</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D29" s="7">
         <v>127796</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E29" s="7">
         <v>139897</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F29" s="7">
         <v>72026</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G29" s="7">
         <v>67871</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H29" s="7">
         <v>116906</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I29" s="7">
         <v>56981</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J29" s="7">
         <v>59925</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B30" s="7">
         <v>2125140</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C30" s="7">
         <v>1064560</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D30" s="7">
         <v>1060580</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E30" s="7">
         <v>1630940</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F30" s="7">
         <v>816582</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G30" s="7">
         <v>814358</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H30" s="7">
         <v>494200</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I30" s="7">
         <v>247978</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J30" s="7">
         <v>246222</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B31" s="7">
         <v>464975</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C31" s="7">
         <v>242539</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D31" s="7">
         <v>222436</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E31" s="7">
         <v>215571</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F31" s="7">
         <v>113805</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G31" s="7">
         <v>101766</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H31" s="7">
         <v>249404</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I31" s="7">
         <v>128734</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J31" s="7">
         <v>120670</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B32" s="7">
         <v>270355</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C32" s="7">
         <v>140353</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D32" s="7">
         <v>130002</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E32" s="7">
         <v>141186</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F32" s="7">
         <v>76063</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G32" s="7">
         <v>65123</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H32" s="7">
         <v>129169</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I32" s="7">
         <v>64290</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J32" s="7">
         <v>64879</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B33" s="7">
         <v>597065</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C33" s="7">
         <v>289717</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D33" s="7">
         <v>307348</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E33" s="7">
         <v>311897</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F33" s="7">
         <v>154460</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G33" s="7">
         <v>157437</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H33" s="7">
         <v>285168</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I33" s="7">
         <v>135257</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J33" s="7">
         <v>149911</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B34" s="7">
         <v>850029</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C34" s="7">
         <v>426179</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D34" s="7">
         <v>423850</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E34" s="7">
         <v>413914</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F34" s="7">
         <v>208675</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G34" s="7">
         <v>205239</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H34" s="7">
         <v>436115</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I34" s="7">
         <v>217504</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J34" s="7">
         <v>218611</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B35" s="7">
         <v>1362708</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C35" s="7">
         <v>692167</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D35" s="7">
         <v>670541</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E35" s="7">
         <v>817692</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F35" s="7">
         <v>420712</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G35" s="7">
         <v>396980</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H35" s="7">
         <v>545016</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I35" s="7">
         <v>271455</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J35" s="7">
         <v>273561</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B36" s="7">
         <v>402606</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C36" s="7">
         <v>213724</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D36" s="7">
         <v>188882</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E36" s="7">
         <v>230908</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F36" s="7">
         <v>123060</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G36" s="7">
         <v>107848</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H36" s="7">
         <v>171698</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I36" s="7">
         <v>90664</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J36" s="7">
         <v>81034</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B37" s="7">
         <v>569616</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C37" s="7">
         <v>287687</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D37" s="7">
         <v>281929</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E37" s="7">
         <v>364274</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F37" s="7">
         <v>186454</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G37" s="7">
         <v>177820</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H37" s="7">
         <v>205342</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I37" s="7">
         <v>101233</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J37" s="7">
         <v>104109</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B38" s="7">
         <v>316841</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C38" s="7">
         <v>169046</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D38" s="7">
         <v>147795</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E38" s="7">
         <v>172206</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F38" s="7">
         <v>96887</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G38" s="7">
         <v>75319</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H38" s="7">
         <v>144635</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I38" s="7">
         <v>72159</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J38" s="7">
         <v>72476</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B39" s="7">
         <v>937389</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C39" s="7">
         <v>482199</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D39" s="7">
         <v>455190</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E39" s="7">
         <v>560551</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F39" s="7">
         <v>298759</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G39" s="7">
         <v>261792</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H39" s="7">
         <v>376838</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I39" s="7">
         <v>183440</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J39" s="7">
         <v>193398</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B40" s="7">
         <v>706009</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C40" s="7">
         <v>352264</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D40" s="7">
         <v>353745</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E40" s="7">
         <v>557028</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F40" s="7">
         <v>277358</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G40" s="7">
         <v>279670</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H40" s="7">
         <v>148981</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I40" s="7">
         <v>74906</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J40" s="7">
         <v>74075</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B41" s="7">
         <v>1285249</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C41" s="7">
         <v>645847</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D41" s="7">
         <v>639402</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E41" s="7">
         <v>1009126</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F41" s="7">
         <v>510366</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G41" s="7">
         <v>498760</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H41" s="7">
         <v>276123</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I41" s="7">
         <v>135481</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J41" s="7">
         <v>140642</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B42" s="7">
         <v>523819</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C42" s="7">
         <v>263343</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D42" s="7">
         <v>260476</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E42" s="7">
         <v>283316</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F42" s="7">
         <v>146395</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G42" s="7">
         <v>136921</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H42" s="7">
         <v>240503</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I42" s="7">
         <v>116948</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J42" s="7">
         <v>123555</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B43" s="7">
         <v>186953</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C43" s="7">
         <v>94879</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D43" s="7">
         <v>92074</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E43" s="7">
         <v>77570</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F43" s="7">
         <v>41247</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G43" s="7">
         <v>36323</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H43" s="7">
         <v>109383</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I43" s="7">
         <v>53632</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J43" s="7">
         <v>55751</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B44" s="7">
         <v>236581</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C44" s="7">
         <v>130682</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D44" s="7">
         <v>105899</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E44" s="7">
         <v>139455</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F44" s="7">
         <v>80665</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G44" s="7">
         <v>58790</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H44" s="7">
         <v>97126</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I44" s="7">
         <v>50017</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J44" s="7">
         <v>47109</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B45" s="7">
         <v>1253726</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C45" s="7">
         <v>621505</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D45" s="7">
         <v>632221</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E45" s="7">
         <v>581341</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F45" s="7">
         <v>287199</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G45" s="7">
         <v>294142</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H45" s="7">
         <v>672385</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I45" s="7">
         <v>334306</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J45" s="7">
         <v>338079</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B46" s="7">
         <v>513681</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C46" s="7">
         <v>270782</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D46" s="7">
         <v>242899</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E46" s="7">
         <v>301561</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F46" s="7">
         <v>164195</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G46" s="7">
         <v>137366</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H46" s="7">
         <v>212120</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I46" s="7">
         <v>106587</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J46" s="7">
         <v>105533</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B47" s="7">
         <v>1651400</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C47" s="7">
         <v>829742</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D47" s="7">
         <v>821658</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E47" s="7">
         <v>999220</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F47" s="7">
         <v>498178</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G47" s="7">
         <v>501042</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H47" s="7">
         <v>652180</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I47" s="7">
         <v>331564</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J47" s="7">
         <v>320616</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B48" s="7">
         <v>10018735</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C48" s="7">
         <v>5088535</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D48" s="7">
         <v>4930200</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E48" s="7">
         <v>9085599</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F48" s="7">
         <v>4596454</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G48" s="7">
         <v>4489145</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H48" s="7">
         <v>933136</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I48" s="7">
         <v>492081</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J48" s="7">
         <v>441055</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B49" s="7">
         <v>3370866</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C49" s="7">
         <v>1698819</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D49" s="7">
         <v>1672047</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E49" s="7">
         <v>2732669</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F49" s="7">
         <v>1372420</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G49" s="7">
         <v>1360249</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H49" s="7">
         <v>638197</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I49" s="7">
         <v>326399</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J49" s="7">
         <v>311798</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B50" s="7">
         <v>325016</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C50" s="7">
         <v>169027</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D50" s="7">
         <v>155989</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E50" s="7">
         <v>142145</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F50" s="7">
         <v>80355</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G50" s="7">
         <v>61790</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H50" s="7">
         <v>182871</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I50" s="7">
         <v>88672</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J50" s="7">
         <v>94199</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B51" s="7">
         <v>375476</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C51" s="7">
         <v>181511</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D51" s="7">
         <v>193965</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E51" s="7">
         <v>174020</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F51" s="7">
         <v>87909</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G51" s="7">
         <v>86111</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H51" s="7">
         <v>201456</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I51" s="7">
         <v>93602</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J51" s="7">
         <v>107854</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
+    <row r="52" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B52" s="7">
         <v>1060432</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C52" s="7">
         <v>529584</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D52" s="7">
         <v>530848</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E52" s="7">
         <v>732354</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F52" s="7">
         <v>368749</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G52" s="7">
         <v>363605</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H52" s="7">
         <v>328078</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I52" s="7">
         <v>160835</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J52" s="7">
         <v>167243</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
+    <row r="53" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B53" s="7">
         <v>328461</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C53" s="7">
         <v>172188</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D53" s="7">
         <v>156273</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E53" s="7">
         <v>189202</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F53" s="7">
         <v>101075</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G53" s="7">
         <v>88127</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H53" s="7">
         <v>139259</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I53" s="7">
         <v>71113</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J53" s="7">
         <v>68146</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B54" s="7">
         <v>253239</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C54" s="7">
         <v>124739</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D54" s="7">
         <v>128500</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E54" s="7">
         <v>147412</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F54" s="7">
         <v>73079</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G54" s="7">
         <v>74333</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H54" s="7">
         <v>105827</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I54" s="7">
         <v>51660</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J54" s="7">
         <v>54167</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B55" s="7">
         <v>1206085</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C55" s="7">
         <v>625309</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D55" s="7">
         <v>580776</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E55" s="7">
         <v>722905</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F55" s="7">
         <v>372889</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G55" s="7">
         <v>350016</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H55" s="7">
         <v>483180</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I55" s="7">
         <v>252420</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J55" s="7">
         <v>230760</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B56" s="7">
         <v>2192166</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C56" s="7">
         <v>1105020</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D56" s="7">
         <v>1087146</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E56" s="7">
         <v>1294817</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F56" s="7">
         <v>654271</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G56" s="7">
         <v>640546</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H56" s="7">
         <v>897349</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I56" s="7">
         <v>450749</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J56" s="7">
         <v>446600</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B57" s="7">
         <v>656903</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C57" s="7">
         <v>332259</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D57" s="7">
         <v>324644</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E57" s="7">
         <v>318869</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F57" s="7">
         <v>163256</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G57" s="7">
         <v>155613</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H57" s="7">
         <v>338034</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I57" s="7">
         <v>169003</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J57" s="7">
         <v>169031</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B58" s="7">
         <v>853658</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C58" s="7">
         <v>434497</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D58" s="7">
         <v>419161</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E58" s="7">
         <v>499713</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F58" s="7">
         <v>255271</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G58" s="7">
         <v>244442</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H58" s="7">
         <v>353945</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I58" s="7">
         <v>179226</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J58" s="7">
         <v>174719</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B59" s="7">
         <v>1260169</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C59" s="7">
         <v>630241</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D59" s="7">
         <v>629928</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E59" s="7">
         <v>714760</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F59" s="7">
         <v>360404</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G59" s="7">
         <v>354356</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H59" s="7">
         <v>545409</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I59" s="7">
         <v>269837</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J59" s="7">
         <v>275572</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B60" s="7">
         <v>1002384</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C60" s="7">
         <v>510662</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D60" s="7">
         <v>491722</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E60" s="7">
         <v>536007</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F60" s="7">
         <v>277087</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G60" s="7">
         <v>258920</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H60" s="7">
         <v>466377</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I60" s="7">
         <v>233575</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J60" s="7">
         <v>232802</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B61" s="7">
         <v>705098</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C61" s="7">
         <v>362167</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D61" s="7">
         <v>342931</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E61" s="7">
         <v>391249</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F61" s="7">
         <v>204132</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G61" s="7">
         <v>187117</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H61" s="7">
         <v>313849</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I61" s="7">
         <v>158035</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J61" s="7">
         <v>155814</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+    <row r="62" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B62" s="7">
         <v>715328</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C62" s="7">
         <v>376677</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D62" s="7">
         <v>338651</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E62" s="7">
         <v>268341</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F62" s="7">
         <v>141796</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G62" s="7">
         <v>126545</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H62" s="7">
         <v>446987</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I62" s="7">
         <v>234881</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J62" s="7">
         <v>212106</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B63" s="7">
         <v>453654</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C63" s="7">
         <v>236214</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D63" s="7">
         <v>217440</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E63" s="7">
         <v>159503</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F63" s="7">
         <v>86231</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G63" s="7">
         <v>73272</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H63" s="7">
         <v>294151</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I63" s="7">
         <v>149983</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J63" s="7">
         <v>144168</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B64" s="7">
         <v>309914</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C64" s="7">
         <v>153088</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D64" s="7">
         <v>156826</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E64" s="7">
         <v>136523</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F64" s="7">
         <v>67905</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G64" s="7">
         <v>68618</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H64" s="7">
         <v>173391</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I64" s="7">
         <v>85183</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J64" s="7">
         <v>88208</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B65" s="7">
         <v>348081</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C65" s="7">
         <v>172367</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D65" s="7">
         <v>175714</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E65" s="7">
         <v>126812</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F65" s="7">
         <v>63744</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G65" s="7">
         <v>63068</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H65" s="7">
         <v>221269</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I65" s="7">
         <v>108623</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J65" s="7">
         <v>112646</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
+    <row r="66" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B66" s="7">
         <v>887765</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C66" s="7">
         <v>441447</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D66" s="7">
         <v>446318</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E66" s="7">
         <v>416631</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F66" s="7">
         <v>210412</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G66" s="7">
         <v>206219</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H66" s="7">
         <v>471134</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I66" s="7">
         <v>231035</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J66" s="7">
         <v>240099</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
+    <row r="67" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B67" s="7">
         <v>365938</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C67" s="7">
         <v>181200</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D67" s="7">
         <v>184738</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E67" s="7">
         <v>205245</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F67" s="7">
         <v>104221</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G67" s="7">
         <v>101024</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H67" s="7">
         <v>160693</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I67" s="7">
         <v>76979</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J67" s="7">
         <v>83714</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
+    <row r="68" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B68" s="7">
         <v>756168</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C68" s="7">
         <v>384140</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D68" s="7">
         <v>372028</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E68" s="7">
         <v>459824</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F68" s="7">
         <v>236442</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G68" s="7">
         <v>223382</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H68" s="7">
         <v>296344</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I68" s="7">
         <v>147698</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J68" s="7">
         <v>148646</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
+    <row r="69" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B69" s="7">
         <v>1209137</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C69" s="7">
         <v>585759</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D69" s="7">
         <v>623378</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E69" s="7">
         <v>635254</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F69" s="7">
         <v>312388</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G69" s="7">
         <v>322866</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H69" s="7">
         <v>573883</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I69" s="7">
         <v>273371</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J69" s="7">
         <v>300512</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
+    <row r="70" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B70" s="7">
         <v>263676</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C70" s="7">
         <v>137687</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D70" s="7">
         <v>125989</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E70" s="7">
         <v>153522</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F70" s="7">
         <v>81116</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G70" s="7">
         <v>72406</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H70" s="7">
         <v>110154</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I70" s="7">
         <v>56571</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J70" s="7">
         <v>53583</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
+    <row r="71" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B71" s="7">
         <v>225574</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C71" s="7">
         <v>109666</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D71" s="7">
         <v>115908</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E71" s="7">
         <v>101285</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F71" s="7">
         <v>51003</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G71" s="7">
         <v>50282</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H71" s="7">
         <v>124289</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I71" s="7">
         <v>58663</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J71" s="7">
         <v>65626</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
+    <row r="72" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B72" s="7">
         <v>755091</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C72" s="7">
         <v>383254</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D72" s="7">
         <v>371837</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E72" s="7">
         <v>421804</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F72" s="7">
         <v>218450</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G72" s="7">
         <v>203354</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H72" s="7">
         <v>333287</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I72" s="7">
         <v>164804</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J72" s="7">
         <v>168483</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
+    <row r="73" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B73" s="7">
         <v>623591</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C73" s="7">
         <v>326399</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D73" s="7">
         <v>297192</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E73" s="7">
         <v>395377</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F73" s="7">
         <v>206507</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G73" s="7">
         <v>188870</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H73" s="7">
         <v>228214</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I73" s="7">
         <v>119892</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J73" s="7">
         <v>108322</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B74" s="7">
         <v>828027</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C74" s="7">
         <v>418856</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D74" s="7">
         <v>409171</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E74" s="7">
         <v>401762</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F74" s="7">
         <v>204246</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G74" s="7">
         <v>197516</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H74" s="7">
         <v>426265</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I74" s="7">
         <v>214610</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J74" s="7">
         <v>211655</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B75" s="7">
         <v>975137</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C75" s="7">
         <v>486957</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D75" s="7">
         <v>488180</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E75" s="7">
         <v>478954</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F75" s="7">
         <v>244474</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G75" s="7">
         <v>234480</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H75" s="7">
         <v>496183</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I75" s="7">
         <v>242483</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J75" s="7">
         <v>253700</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B76" s="7">
         <v>93584</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C76" s="7">
         <v>54529</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D76" s="7">
         <v>39055</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E76" s="7">
         <v>54476</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F76" s="7">
         <v>32991</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G76" s="7">
         <v>21485</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H76" s="7">
         <v>39108</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I76" s="7">
         <v>21538</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J76" s="7">
         <v>17570</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
+    <row r="77" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B77" s="7">
         <v>1443422</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C77" s="7">
         <v>748929</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D77" s="7">
         <v>694493</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E77" s="7">
         <v>842129</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F77" s="7">
         <v>442783</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G77" s="7">
         <v>399346</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H77" s="7">
         <v>601293</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I77" s="7">
         <v>306146</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J77" s="7">
         <v>295147</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
+    <row r="78" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B78" s="7">
         <v>322313</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C78" s="7">
         <v>159804</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D78" s="7">
         <v>162509</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E78" s="7">
         <v>182040</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F78" s="7">
         <v>90520</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G78" s="7">
         <v>91520</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H78" s="7">
         <v>140273</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I78" s="7">
         <v>69284</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J78" s="7">
         <v>70989</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
+    <row r="79" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B79" s="7">
         <v>877524</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C79" s="7">
         <v>448039</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D79" s="7">
         <v>429485</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E79" s="7">
         <v>446976</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F79" s="7">
         <v>237246</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G79" s="7">
         <v>209730</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H79" s="7">
         <v>430548</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I79" s="7">
         <v>210793</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J79" s="7">
         <v>219755</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="s">
+    <row r="80" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B80" s="7">
         <v>682919</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C80" s="7">
         <v>342771</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D80" s="7">
         <v>340148</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E80" s="7">
         <v>315156</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F80" s="7">
         <v>162273</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G80" s="7">
         <v>152883</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H80" s="7">
         <v>367763</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I80" s="7">
         <v>180498</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J80" s="7">
         <v>187265</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
+    <row r="81" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B81" s="7">
         <v>615599</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C81" s="7">
         <v>300676</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D81" s="7">
         <v>314923</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E81" s="7">
         <v>250282</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F81" s="7">
         <v>126067</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G81" s="7">
         <v>124215</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H81" s="7">
         <v>365317</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I81" s="7">
         <v>174609</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J81" s="7">
         <v>190708</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
+    <row r="82" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B82" s="7">
         <v>396084</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C82" s="7">
         <v>195822</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D82" s="7">
         <v>200262</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E82" s="7">
         <v>200216</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F82" s="7">
         <v>99916</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G82" s="7">
         <v>100300</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H82" s="7">
         <v>195868</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I82" s="7">
         <v>95906</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J82" s="7">
         <v>99962</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1" t="s">
+    <row r="83" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B83" s="7">
         <v>97358</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C83" s="7">
         <v>49035</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D83" s="7">
         <v>48323</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E83" s="7">
         <v>41356</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F83" s="7">
         <v>21945</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G83" s="7">
         <v>19411</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H83" s="7">
         <v>56002</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I83" s="7">
         <v>27090</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J83" s="7">
         <v>28912</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
+    <row r="84" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B84" s="7">
         <v>243210</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C84" s="7">
         <v>120957</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D84" s="7">
         <v>122253</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E84" s="7">
         <v>139912</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F84" s="7">
         <v>69676</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G84" s="7">
         <v>70236</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H84" s="7">
         <v>103298</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I84" s="7">
         <v>51281</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J84" s="7">
         <v>52017</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
+    <row r="85" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B85" s="7">
         <v>383508</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C85" s="7">
         <v>196430</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D85" s="7">
         <v>187078</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E85" s="7">
         <v>285294</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F85" s="7">
         <v>146151</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G85" s="7">
         <v>139143</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H85" s="7">
         <v>98214</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I85" s="7">
         <v>50279</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J85" s="7">
         <v>47935</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
+    <row r="86" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B86" s="7">
         <v>456734</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C86" s="7">
         <v>230711</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D86" s="7">
         <v>226023</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E86" s="7">
         <v>304166</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F86" s="7">
         <v>153919</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G86" s="7">
         <v>150247</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H86" s="7">
         <v>152568</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I86" s="7">
         <v>76792</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J86" s="7">
         <v>75776</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B87" s="7">
         <v>353197</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C87" s="7">
         <v>193534</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D87" s="7">
         <v>159663</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E87" s="7">
         <v>211328</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F87" s="7">
         <v>115615</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G87" s="7">
         <v>95713</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H87" s="7">
         <v>141869</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I87" s="7">
         <v>77919</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J87" s="7">
         <v>63950</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1" t="s">
+    <row r="88" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B88" s="7">
         <v>184178</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C88" s="7">
         <v>87211</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D88" s="7">
         <v>96967</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E88" s="7">
         <v>48002</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F88" s="7">
         <v>23483</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G88" s="7">
         <v>24519</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H88" s="7">
         <v>136176</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I88" s="7">
         <v>63728</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J88" s="7">
         <v>72448</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B89" s="7">
         <v>133756</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C89" s="7">
         <v>69833</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D89" s="7">
         <v>63923</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E89" s="7">
         <v>39725</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F89" s="7">
         <v>23572</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G89" s="7">
         <v>16153</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H89" s="7">
         <v>94031</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I89" s="7">
         <v>46261</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J89" s="7">
         <v>47770</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1" t="s">
+    <row r="90" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B90" s="7">
         <v>168634</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C90" s="7">
         <v>87083</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D90" s="7">
         <v>81551</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E90" s="7">
         <v>81582</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F90" s="7">
         <v>43190</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G90" s="7">
         <v>38392</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H90" s="7">
         <v>87052</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I90" s="7">
         <v>43893</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J90" s="7">
         <v>43159</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
+    <row r="91" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B91" s="7">
         <v>168593</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C91" s="7">
         <v>88750</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D91" s="7">
         <v>79843</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E91" s="7">
         <v>98661</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F91" s="7">
         <v>49922</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G91" s="7">
         <v>48739</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H91" s="7">
         <v>69932</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I91" s="7">
         <v>38828</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J91" s="7">
         <v>31104</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
+    <row r="92" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B92" s="7">
         <v>225102</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C92" s="7">
         <v>111340</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D92" s="7">
         <v>113762</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E92" s="7">
         <v>157756</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F92" s="7">
         <v>79010</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G92" s="7">
         <v>78746</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H92" s="7">
         <v>67346</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I92" s="7">
         <v>32330</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J92" s="7">
         <v>35016</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1" t="s">
+    <row r="93" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B93" s="7">
         <v>114724</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C93" s="7">
         <v>57081</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D93" s="7">
         <v>57643</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E93" s="7">
         <v>74985</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F93" s="7">
         <v>37558</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G93" s="7">
         <v>37427</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H93" s="7">
         <v>39739</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I93" s="7">
         <v>19523</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J93" s="7">
         <v>20216</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1" t="s">
+    <row r="94" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B94" s="7">
         <v>458782</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C94" s="7">
         <v>231259</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D94" s="7">
         <v>227523</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E94" s="7">
         <v>311994</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F94" s="7">
         <v>159335</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G94" s="7">
         <v>152659</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H94" s="7">
         <v>146788</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I94" s="7">
         <v>71924</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J94" s="7">
         <v>74864</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
+    <row r="95" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B95" s="7">
         <v>314266</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C95" s="7">
         <v>161927</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D95" s="7">
         <v>152339</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E95" s="7">
         <v>130632</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F95" s="7">
         <v>67656</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G95" s="7">
         <v>62976</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H95" s="7">
         <v>183634</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I95" s="7">
         <v>94271</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J95" s="7">
         <v>89363</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" ht="23.25">
-      <c r="A94" s="8" t="s">
+    <row r="96" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="23.25">
-      <c r="A95" s="8" t="s">
+    <row r="98" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>92</v>
       </c>
     </row>

--- a/years/2000.xlsx
+++ b/years/2000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="937" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="dUqpgCOh" sheetId="2" r:id="rId1"/>
+    <sheet name="dUqpgCOh" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -26,16 +26,16 @@
     <t>İllere göre şehir ve köy nüfusları</t>
   </si>
   <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Şehir</t>
+  </si>
+  <si>
+    <t>Köy </t>
+  </si>
+  <si>
     <t>İller</t>
-  </si>
-  <si>
-    <t>Toplam</t>
-  </si>
-  <si>
-    <t>Şehir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köy </t>
   </si>
   <si>
     <t>Erkek</t>
@@ -299,172 +299,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -472,7 +352,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF7F0000"/>
       <name val="Arial"/>
@@ -487,3548 +367,3000 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7F0000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A122" activeCellId="1" sqref="35:95 A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
+    <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="10" t="n">
         <v>67803927</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10" t="n">
         <v>34346735</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="10" t="n">
         <v>33457192</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="10" t="n">
         <v>44006184</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="10" t="n">
         <v>22427541</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="10" t="n">
         <v>21578643</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="10" t="n">
         <v>23797743</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="10" t="n">
         <v>11919194</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="10" t="n">
         <v>11878549</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="11" t="n">
         <v>1849478</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="11" t="n">
         <v>920001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="11" t="n">
         <v>929477</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="11" t="n">
         <v>1397853</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="11" t="n">
         <v>693586</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="11" t="n">
         <v>704267</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="11" t="n">
         <v>451625</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="11" t="n">
         <v>226415</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="11" t="n">
         <v>225210</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="11" t="n">
         <v>623811</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="11" t="n">
         <v>313362</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="11" t="n">
         <v>310449</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="11" t="n">
         <v>338939</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="11" t="n">
         <v>173772</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="11" t="n">
         <v>165167</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="11" t="n">
         <v>284872</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="11" t="n">
         <v>139590</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="11" t="n">
         <v>145282</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="11" t="n">
         <v>812416</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11" t="n">
         <v>409311</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="11" t="n">
         <v>403105</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="11" t="n">
         <v>371868</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="11" t="n">
         <v>189637</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="11" t="n">
         <v>182231</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="11" t="n">
         <v>440548</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="11" t="n">
         <v>219674</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="11" t="n">
         <v>220874</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="11" t="n">
         <v>528744</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="11" t="n">
         <v>273895</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="11" t="n">
         <v>254849</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="11" t="n">
         <v>252309</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="11" t="n">
         <v>138049</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="11" t="n">
         <v>114260</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="11" t="n">
         <v>276435</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="11" t="n">
         <v>135846</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="11" t="n">
         <v>140589</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="11" t="n">
         <v>365231</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="11" t="n">
         <v>185594</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="11" t="n">
         <v>179637</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11" t="n">
         <v>196621</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11" t="n">
         <v>102248</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="11" t="n">
         <v>94373</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="11" t="n">
         <v>168610</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="11" t="n">
         <v>83346</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="11" t="n">
         <v>85264</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="11" t="n">
         <v>4007860</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="11" t="n">
         <v>2027105</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="11" t="n">
         <v>1980755</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11" t="n">
         <v>3540522</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11" t="n">
         <v>1785489</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="11" t="n">
         <v>1755033</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="11" t="n">
         <v>467338</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="11" t="n">
         <v>241616</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="11" t="n">
         <v>225722</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="11" t="n">
         <v>1719751</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="11" t="n">
         <v>885826</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="11" t="n">
         <v>833925</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="11" t="n">
         <v>936240</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="11" t="n">
         <v>477567</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="11" t="n">
         <v>458673</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="11" t="n">
         <v>783511</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="11" t="n">
         <v>408259</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="11" t="n">
         <v>375252</v>
       </c>
     </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11" t="n">
         <v>191934</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11" t="n">
         <v>96599</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11" t="n">
         <v>95335</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11" t="n">
         <v>84198</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="11" t="n">
         <v>44471</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="11" t="n">
         <v>39727</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="11" t="n">
         <v>107736</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="11" t="n">
         <v>52128</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="11" t="n">
         <v>55608</v>
       </c>
     </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="11" t="n">
         <v>950757</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="11" t="n">
         <v>475817</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="11" t="n">
         <v>474940</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="11" t="n">
         <v>493114</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="11" t="n">
         <v>247560</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="11" t="n">
         <v>245554</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="11" t="n">
         <v>457643</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="11" t="n">
         <v>228257</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="11" t="n">
         <v>229386</v>
       </c>
     </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="11" t="n">
         <v>1076347</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="11" t="n">
         <v>542681</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="11" t="n">
         <v>533666</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11" t="n">
         <v>577595</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="11" t="n">
         <v>293161</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="11" t="n">
         <v>284434</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="11" t="n">
         <v>498752</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="11" t="n">
         <v>249520</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="11" t="n">
         <v>249232</v>
       </c>
     </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="11" t="n">
         <v>194326</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="11" t="n">
         <v>101919</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="11" t="n">
         <v>92407</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="11" t="n">
         <v>124380</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="11" t="n">
         <v>67104</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="11" t="n">
         <v>57276</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="11" t="n">
         <v>69946</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="11" t="n">
         <v>34815</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="11" t="n">
         <v>35131</v>
       </c>
     </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="11" t="n">
         <v>253739</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="11" t="n">
         <v>131440</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="11" t="n">
         <v>122299</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11" t="n">
         <v>123470</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="11" t="n">
         <v>66573</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="11" t="n">
         <v>56897</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="11" t="n">
         <v>130269</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="11" t="n">
         <v>64867</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="11" t="n">
         <v>65402</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="11" t="n">
         <v>388678</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="11" t="n">
         <v>205820</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="11" t="n">
         <v>182858</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="11" t="n">
         <v>219511</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="11" t="n">
         <v>119958</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="11" t="n">
         <v>99553</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="11" t="n">
         <v>169167</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="11" t="n">
         <v>85862</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="11" t="n">
         <v>83305</v>
       </c>
     </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="11" t="n">
         <v>270654</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="11" t="n">
         <v>137153</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="11" t="n">
         <v>133501</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="11" t="n">
         <v>142685</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="11" t="n">
         <v>76166</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="11" t="n">
         <v>66519</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="11" t="n">
         <v>127969</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="11" t="n">
         <v>60987</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="11" t="n">
         <v>66982</v>
       </c>
     </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="11" t="n">
         <v>256803</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="11" t="n">
         <v>129007</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="11" t="n">
         <v>127796</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="11" t="n">
         <v>139897</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="11" t="n">
         <v>72026</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="11" t="n">
         <v>67871</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="11" t="n">
         <v>116906</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="11" t="n">
         <v>56981</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="11" t="n">
         <v>59925</v>
       </c>
     </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="11" t="n">
         <v>2125140</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="11" t="n">
         <v>1064560</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="11" t="n">
         <v>1060580</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="11" t="n">
         <v>1630940</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="11" t="n">
         <v>816582</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="11" t="n">
         <v>814358</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="11" t="n">
         <v>494200</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="11" t="n">
         <v>247978</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="11" t="n">
         <v>246222</v>
       </c>
     </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="11" t="n">
         <v>464975</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="11" t="n">
         <v>242539</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="11" t="n">
         <v>222436</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="11" t="n">
         <v>215571</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="11" t="n">
         <v>113805</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="11" t="n">
         <v>101766</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="11" t="n">
         <v>249404</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="11" t="n">
         <v>128734</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="11" t="n">
         <v>120670</v>
       </c>
     </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11" t="n">
         <v>270355</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="11" t="n">
         <v>140353</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="11" t="n">
         <v>130002</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="11" t="n">
         <v>141186</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="11" t="n">
         <v>76063</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="11" t="n">
         <v>65123</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="11" t="n">
         <v>129169</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="11" t="n">
         <v>64290</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="11" t="n">
         <v>64879</v>
       </c>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="11" t="n">
         <v>597065</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="11" t="n">
         <v>289717</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="11" t="n">
         <v>307348</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="11" t="n">
         <v>311897</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="11" t="n">
         <v>154460</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="11" t="n">
         <v>157437</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="11" t="n">
         <v>285168</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="11" t="n">
         <v>135257</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="11" t="n">
         <v>149911</v>
       </c>
     </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="11" t="n">
         <v>850029</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="11" t="n">
         <v>426179</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="11" t="n">
         <v>423850</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="11" t="n">
         <v>413914</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="11" t="n">
         <v>208675</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="11" t="n">
         <v>205239</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="11" t="n">
         <v>436115</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="11" t="n">
         <v>217504</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="11" t="n">
         <v>218611</v>
       </c>
     </row>
-    <row r="35" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="11" t="n">
         <v>1362708</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="11" t="n">
         <v>692167</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="11" t="n">
         <v>670541</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="11" t="n">
         <v>817692</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="11" t="n">
         <v>420712</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="11" t="n">
         <v>396980</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="11" t="n">
         <v>545016</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="11" t="n">
         <v>271455</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="11" t="n">
         <v>273561</v>
       </c>
     </row>
-    <row r="36" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="11" t="n">
         <v>402606</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="11" t="n">
         <v>213724</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="11" t="n">
         <v>188882</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="11" t="n">
         <v>230908</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="11" t="n">
         <v>123060</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="11" t="n">
         <v>107848</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="11" t="n">
         <v>171698</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="11" t="n">
         <v>90664</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="11" t="n">
         <v>81034</v>
       </c>
     </row>
-    <row r="37" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="11" t="n">
         <v>569616</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="11" t="n">
         <v>287687</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="11" t="n">
         <v>281929</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="11" t="n">
         <v>364274</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="11" t="n">
         <v>186454</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="11" t="n">
         <v>177820</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="11" t="n">
         <v>205342</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="11" t="n">
         <v>101233</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="11" t="n">
         <v>104109</v>
       </c>
     </row>
-    <row r="38" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="11" t="n">
         <v>316841</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="11" t="n">
         <v>169046</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="11" t="n">
         <v>147795</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="11" t="n">
         <v>172206</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="11" t="n">
         <v>96887</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="11" t="n">
         <v>75319</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="11" t="n">
         <v>144635</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="11" t="n">
         <v>72159</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="11" t="n">
         <v>72476</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="11" t="n">
         <v>937389</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="11" t="n">
         <v>482199</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="11" t="n">
         <v>455190</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="11" t="n">
         <v>560551</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="11" t="n">
         <v>298759</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="11" t="n">
         <v>261792</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="11" t="n">
         <v>376838</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="11" t="n">
         <v>183440</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="11" t="n">
         <v>193398</v>
       </c>
     </row>
-    <row r="40" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="11" t="n">
         <v>706009</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="11" t="n">
         <v>352264</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="11" t="n">
         <v>353745</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="11" t="n">
         <v>557028</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="11" t="n">
         <v>277358</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="11" t="n">
         <v>279670</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="11" t="n">
         <v>148981</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="11" t="n">
         <v>74906</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="11" t="n">
         <v>74075</v>
       </c>
     </row>
-    <row r="41" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="11" t="n">
         <v>1285249</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="11" t="n">
         <v>645847</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="11" t="n">
         <v>639402</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="11" t="n">
         <v>1009126</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="11" t="n">
         <v>510366</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="11" t="n">
         <v>498760</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="11" t="n">
         <v>276123</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="11" t="n">
         <v>135481</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="11" t="n">
         <v>140642</v>
       </c>
     </row>
-    <row r="42" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="11" t="n">
         <v>523819</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="11" t="n">
         <v>263343</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="11" t="n">
         <v>260476</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="11" t="n">
         <v>283316</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="11" t="n">
         <v>146395</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="11" t="n">
         <v>136921</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="11" t="n">
         <v>240503</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="11" t="n">
         <v>116948</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="11" t="n">
         <v>123555</v>
       </c>
     </row>
-    <row r="43" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="11" t="n">
         <v>186953</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="11" t="n">
         <v>94879</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="11" t="n">
         <v>92074</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="11" t="n">
         <v>77570</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="11" t="n">
         <v>41247</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="11" t="n">
         <v>36323</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="11" t="n">
         <v>109383</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="11" t="n">
         <v>53632</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="11" t="n">
         <v>55751</v>
       </c>
     </row>
-    <row r="44" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="11" t="n">
         <v>236581</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="11" t="n">
         <v>130682</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="11" t="n">
         <v>105899</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="11" t="n">
         <v>139455</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="11" t="n">
         <v>80665</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="11" t="n">
         <v>58790</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="11" t="n">
         <v>97126</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="11" t="n">
         <v>50017</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="11" t="n">
         <v>47109</v>
       </c>
     </row>
-    <row r="45" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="11" t="n">
         <v>1253726</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="11" t="n">
         <v>621505</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="11" t="n">
         <v>632221</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="11" t="n">
         <v>581341</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="11" t="n">
         <v>287199</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="11" t="n">
         <v>294142</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="11" t="n">
         <v>672385</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="11" t="n">
         <v>334306</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="11" t="n">
         <v>338079</v>
       </c>
     </row>
-    <row r="46" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="11" t="n">
         <v>513681</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="11" t="n">
         <v>270782</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="11" t="n">
         <v>242899</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="11" t="n">
         <v>301561</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="11" t="n">
         <v>164195</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="11" t="n">
         <v>137366</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="11" t="n">
         <v>212120</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="11" t="n">
         <v>106587</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="11" t="n">
         <v>105533</v>
       </c>
     </row>
-    <row r="47" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="11" t="n">
         <v>1651400</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="11" t="n">
         <v>829742</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="11" t="n">
         <v>821658</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="11" t="n">
         <v>999220</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="11" t="n">
         <v>498178</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="11" t="n">
         <v>501042</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="11" t="n">
         <v>652180</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="11" t="n">
         <v>331564</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="11" t="n">
         <v>320616</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="11" t="n">
         <v>10018735</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="11" t="n">
         <v>5088535</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="11" t="n">
         <v>4930200</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="11" t="n">
         <v>9085599</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="11" t="n">
         <v>4596454</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="11" t="n">
         <v>4489145</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="11" t="n">
         <v>933136</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="11" t="n">
         <v>492081</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="11" t="n">
         <v>441055</v>
       </c>
     </row>
-    <row r="49" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="11" t="n">
         <v>3370866</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="11" t="n">
         <v>1698819</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="11" t="n">
         <v>1672047</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="11" t="n">
         <v>2732669</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="11" t="n">
         <v>1372420</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="11" t="n">
         <v>1360249</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="11" t="n">
         <v>638197</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="11" t="n">
         <v>326399</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="11" t="n">
         <v>311798</v>
       </c>
     </row>
-    <row r="50" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="11" t="n">
         <v>325016</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="11" t="n">
         <v>169027</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="11" t="n">
         <v>155989</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="11" t="n">
         <v>142145</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="11" t="n">
         <v>80355</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="11" t="n">
         <v>61790</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="11" t="n">
         <v>182871</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="11" t="n">
         <v>88672</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="11" t="n">
         <v>94199</v>
       </c>
     </row>
-    <row r="51" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="11" t="n">
         <v>375476</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="11" t="n">
         <v>181511</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="11" t="n">
         <v>193965</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="11" t="n">
         <v>174020</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="11" t="n">
         <v>87909</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="11" t="n">
         <v>86111</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="11" t="n">
         <v>201456</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="11" t="n">
         <v>93602</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="11" t="n">
         <v>107854</v>
       </c>
     </row>
-    <row r="52" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="11" t="n">
         <v>1060432</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="11" t="n">
         <v>529584</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="11" t="n">
         <v>530848</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="11" t="n">
         <v>732354</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="11" t="n">
         <v>368749</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="11" t="n">
         <v>363605</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="11" t="n">
         <v>328078</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="11" t="n">
         <v>160835</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="11" t="n">
         <v>167243</v>
       </c>
     </row>
-    <row r="53" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="11" t="n">
         <v>328461</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="11" t="n">
         <v>172188</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="11" t="n">
         <v>156273</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="11" t="n">
         <v>189202</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="11" t="n">
         <v>101075</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="11" t="n">
         <v>88127</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="11" t="n">
         <v>139259</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="11" t="n">
         <v>71113</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="11" t="n">
         <v>68146</v>
       </c>
     </row>
-    <row r="54" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="11" t="n">
         <v>253239</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="11" t="n">
         <v>124739</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="11" t="n">
         <v>128500</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="11" t="n">
         <v>147412</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="11" t="n">
         <v>73079</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="11" t="n">
         <v>74333</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="11" t="n">
         <v>105827</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="11" t="n">
         <v>51660</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="11" t="n">
         <v>54167</v>
       </c>
     </row>
-    <row r="55" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="11" t="n">
         <v>1206085</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="11" t="n">
         <v>625309</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="11" t="n">
         <v>580776</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="11" t="n">
         <v>722905</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="11" t="n">
         <v>372889</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="11" t="n">
         <v>350016</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="11" t="n">
         <v>483180</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="11" t="n">
         <v>252420</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="11" t="n">
         <v>230760</v>
       </c>
     </row>
-    <row r="56" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="11" t="n">
         <v>2192166</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="11" t="n">
         <v>1105020</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="11" t="n">
         <v>1087146</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="11" t="n">
         <v>1294817</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="11" t="n">
         <v>654271</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="11" t="n">
         <v>640546</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="11" t="n">
         <v>897349</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="11" t="n">
         <v>450749</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="11" t="n">
         <v>446600</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="11" t="n">
         <v>656903</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="11" t="n">
         <v>332259</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="11" t="n">
         <v>324644</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="11" t="n">
         <v>318869</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="11" t="n">
         <v>163256</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="11" t="n">
         <v>155613</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="11" t="n">
         <v>338034</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="11" t="n">
         <v>169003</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="11" t="n">
         <v>169031</v>
       </c>
     </row>
-    <row r="58" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="11" t="n">
         <v>853658</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="11" t="n">
         <v>434497</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="11" t="n">
         <v>419161</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="11" t="n">
         <v>499713</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="11" t="n">
         <v>255271</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="11" t="n">
         <v>244442</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="11" t="n">
         <v>353945</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="11" t="n">
         <v>179226</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="11" t="n">
         <v>174719</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="11" t="n">
         <v>1260169</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="11" t="n">
         <v>630241</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="11" t="n">
         <v>629928</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="11" t="n">
         <v>714760</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="11" t="n">
         <v>360404</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="11" t="n">
         <v>354356</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="11" t="n">
         <v>545409</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="11" t="n">
         <v>269837</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="11" t="n">
         <v>275572</v>
       </c>
     </row>
-    <row r="60" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="11" t="n">
         <v>1002384</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="11" t="n">
         <v>510662</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="11" t="n">
         <v>491722</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="11" t="n">
         <v>536007</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="11" t="n">
         <v>277087</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="11" t="n">
         <v>258920</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="11" t="n">
         <v>466377</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="11" t="n">
         <v>233575</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="11" t="n">
         <v>232802</v>
       </c>
     </row>
-    <row r="61" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="11" t="n">
         <v>705098</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="11" t="n">
         <v>362167</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="11" t="n">
         <v>342931</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="11" t="n">
         <v>391249</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="11" t="n">
         <v>204132</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="11" t="n">
         <v>187117</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="11" t="n">
         <v>313849</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="11" t="n">
         <v>158035</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="11" t="n">
         <v>155814</v>
       </c>
     </row>
-    <row r="62" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="11" t="n">
         <v>715328</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="11" t="n">
         <v>376677</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="11" t="n">
         <v>338651</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="11" t="n">
         <v>268341</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="11" t="n">
         <v>141796</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="11" t="n">
         <v>126545</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="11" t="n">
         <v>446987</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="11" t="n">
         <v>234881</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="11" t="n">
         <v>212106</v>
       </c>
     </row>
-    <row r="63" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="11" t="n">
         <v>453654</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="11" t="n">
         <v>236214</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="11" t="n">
         <v>217440</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="11" t="n">
         <v>159503</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="11" t="n">
         <v>86231</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="11" t="n">
         <v>73272</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="11" t="n">
         <v>294151</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="11" t="n">
         <v>149983</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="11" t="n">
         <v>144168</v>
       </c>
     </row>
-    <row r="64" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="11" t="n">
         <v>309914</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="11" t="n">
         <v>153088</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="11" t="n">
         <v>156826</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="11" t="n">
         <v>136523</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="11" t="n">
         <v>67905</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="11" t="n">
         <v>68618</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="11" t="n">
         <v>173391</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="11" t="n">
         <v>85183</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="11" t="n">
         <v>88208</v>
       </c>
     </row>
-    <row r="65" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="11" t="n">
         <v>348081</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="11" t="n">
         <v>172367</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="11" t="n">
         <v>175714</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="11" t="n">
         <v>126812</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="11" t="n">
         <v>63744</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="11" t="n">
         <v>63068</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="11" t="n">
         <v>221269</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="11" t="n">
         <v>108623</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="11" t="n">
         <v>112646</v>
       </c>
     </row>
-    <row r="66" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="11" t="n">
         <v>887765</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="11" t="n">
         <v>441447</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="11" t="n">
         <v>446318</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="11" t="n">
         <v>416631</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="11" t="n">
         <v>210412</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="11" t="n">
         <v>206219</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="11" t="n">
         <v>471134</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="11" t="n">
         <v>231035</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="11" t="n">
         <v>240099</v>
       </c>
     </row>
-    <row r="67" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="11" t="n">
         <v>365938</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="11" t="n">
         <v>181200</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="11" t="n">
         <v>184738</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="11" t="n">
         <v>205245</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="11" t="n">
         <v>104221</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="11" t="n">
         <v>101024</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="11" t="n">
         <v>160693</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="11" t="n">
         <v>76979</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="11" t="n">
         <v>83714</v>
       </c>
     </row>
-    <row r="68" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="11" t="n">
         <v>756168</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="11" t="n">
         <v>384140</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="11" t="n">
         <v>372028</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="11" t="n">
         <v>459824</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="11" t="n">
         <v>236442</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="11" t="n">
         <v>223382</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="11" t="n">
         <v>296344</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="11" t="n">
         <v>147698</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="11" t="n">
         <v>148646</v>
       </c>
     </row>
-    <row r="69" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="11" t="n">
         <v>1209137</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="11" t="n">
         <v>585759</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="11" t="n">
         <v>623378</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="11" t="n">
         <v>635254</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="11" t="n">
         <v>312388</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="11" t="n">
         <v>322866</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="11" t="n">
         <v>573883</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="11" t="n">
         <v>273371</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="11" t="n">
         <v>300512</v>
       </c>
     </row>
-    <row r="70" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="11" t="n">
         <v>263676</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="11" t="n">
         <v>137687</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="11" t="n">
         <v>125989</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="11" t="n">
         <v>153522</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="11" t="n">
         <v>81116</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="11" t="n">
         <v>72406</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="11" t="n">
         <v>110154</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="11" t="n">
         <v>56571</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="11" t="n">
         <v>53583</v>
       </c>
     </row>
-    <row r="71" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="11" t="n">
         <v>225574</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="11" t="n">
         <v>109666</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="11" t="n">
         <v>115908</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="11" t="n">
         <v>101285</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="11" t="n">
         <v>51003</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="11" t="n">
         <v>50282</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="11" t="n">
         <v>124289</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="11" t="n">
         <v>58663</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="11" t="n">
         <v>65626</v>
       </c>
     </row>
-    <row r="72" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="11" t="n">
         <v>755091</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="11" t="n">
         <v>383254</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="11" t="n">
         <v>371837</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="11" t="n">
         <v>421804</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="11" t="n">
         <v>218450</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="11" t="n">
         <v>203354</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="11" t="n">
         <v>333287</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="11" t="n">
         <v>164804</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="11" t="n">
         <v>168483</v>
       </c>
     </row>
-    <row r="73" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="11" t="n">
         <v>623591</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="11" t="n">
         <v>326399</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="11" t="n">
         <v>297192</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="11" t="n">
         <v>395377</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="11" t="n">
         <v>206507</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="11" t="n">
         <v>188870</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="11" t="n">
         <v>228214</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="11" t="n">
         <v>119892</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="11" t="n">
         <v>108322</v>
       </c>
     </row>
-    <row r="74" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="11" t="n">
         <v>828027</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="11" t="n">
         <v>418856</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="11" t="n">
         <v>409171</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="11" t="n">
         <v>401762</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="11" t="n">
         <v>204246</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="11" t="n">
         <v>197516</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="11" t="n">
         <v>426265</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="11" t="n">
         <v>214610</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="11" t="n">
         <v>211655</v>
       </c>
     </row>
-    <row r="75" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="11" t="n">
         <v>975137</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="11" t="n">
         <v>486957</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="11" t="n">
         <v>488180</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="11" t="n">
         <v>478954</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="11" t="n">
         <v>244474</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="11" t="n">
         <v>234480</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="11" t="n">
         <v>496183</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="11" t="n">
         <v>242483</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="11" t="n">
         <v>253700</v>
       </c>
     </row>
-    <row r="76" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="11" t="n">
         <v>93584</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="11" t="n">
         <v>54529</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="11" t="n">
         <v>39055</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="11" t="n">
         <v>54476</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="11" t="n">
         <v>32991</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="11" t="n">
         <v>21485</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="11" t="n">
         <v>39108</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="11" t="n">
         <v>21538</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="11" t="n">
         <v>17570</v>
       </c>
     </row>
-    <row r="77" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="11" t="n">
         <v>1443422</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="11" t="n">
         <v>748929</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="11" t="n">
         <v>694493</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="11" t="n">
         <v>842129</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="11" t="n">
         <v>442783</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="11" t="n">
         <v>399346</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="11" t="n">
         <v>601293</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="11" t="n">
         <v>306146</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="11" t="n">
         <v>295147</v>
       </c>
     </row>
-    <row r="78" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="11" t="n">
         <v>322313</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="11" t="n">
         <v>159804</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="11" t="n">
         <v>162509</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="11" t="n">
         <v>182040</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="11" t="n">
         <v>90520</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="11" t="n">
         <v>91520</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="11" t="n">
         <v>140273</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="11" t="n">
         <v>69284</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="11" t="n">
         <v>70989</v>
       </c>
     </row>
-    <row r="79" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="11" t="n">
         <v>877524</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="11" t="n">
         <v>448039</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="11" t="n">
         <v>429485</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="11" t="n">
         <v>446976</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="11" t="n">
         <v>237246</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="11" t="n">
         <v>209730</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="11" t="n">
         <v>430548</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="11" t="n">
         <v>210793</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="11" t="n">
         <v>219755</v>
       </c>
     </row>
-    <row r="80" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="11" t="n">
         <v>682919</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="11" t="n">
         <v>342771</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="11" t="n">
         <v>340148</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="11" t="n">
         <v>315156</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="11" t="n">
         <v>162273</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="11" t="n">
         <v>152883</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="11" t="n">
         <v>367763</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="11" t="n">
         <v>180498</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="11" t="n">
         <v>187265</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="11" t="n">
         <v>615599</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="11" t="n">
         <v>300676</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="11" t="n">
         <v>314923</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="11" t="n">
         <v>250282</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="11" t="n">
         <v>126067</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="11" t="n">
         <v>124215</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="11" t="n">
         <v>365317</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="11" t="n">
         <v>174609</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="11" t="n">
         <v>190708</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="11" t="n">
         <v>396084</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="11" t="n">
         <v>195822</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="11" t="n">
         <v>200262</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="11" t="n">
         <v>200216</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="11" t="n">
         <v>99916</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="11" t="n">
         <v>100300</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="11" t="n">
         <v>195868</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="11" t="n">
         <v>95906</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="11" t="n">
         <v>99962</v>
       </c>
     </row>
-    <row r="83" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="11" t="n">
         <v>97358</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="11" t="n">
         <v>49035</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="11" t="n">
         <v>48323</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="11" t="n">
         <v>41356</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="11" t="n">
         <v>21945</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="11" t="n">
         <v>19411</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="11" t="n">
         <v>56002</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="11" t="n">
         <v>27090</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="11" t="n">
         <v>28912</v>
       </c>
     </row>
-    <row r="84" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="11" t="n">
         <v>243210</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="11" t="n">
         <v>120957</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="11" t="n">
         <v>122253</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="11" t="n">
         <v>139912</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="11" t="n">
         <v>69676</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="11" t="n">
         <v>70236</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="11" t="n">
         <v>103298</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="11" t="n">
         <v>51281</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="11" t="n">
         <v>52017</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="11" t="n">
         <v>383508</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="11" t="n">
         <v>196430</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="11" t="n">
         <v>187078</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="11" t="n">
         <v>285294</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="11" t="n">
         <v>146151</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="11" t="n">
         <v>139143</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="11" t="n">
         <v>98214</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="11" t="n">
         <v>50279</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="11" t="n">
         <v>47935</v>
       </c>
     </row>
-    <row r="86" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="11" t="n">
         <v>456734</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="11" t="n">
         <v>230711</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="11" t="n">
         <v>226023</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="11" t="n">
         <v>304166</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="11" t="n">
         <v>153919</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="11" t="n">
         <v>150247</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="11" t="n">
         <v>152568</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="11" t="n">
         <v>76792</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="11" t="n">
         <v>75776</v>
       </c>
     </row>
-    <row r="87" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="11" t="n">
         <v>353197</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="11" t="n">
         <v>193534</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="11" t="n">
         <v>159663</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="11" t="n">
         <v>211328</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="11" t="n">
         <v>115615</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="11" t="n">
         <v>95713</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="11" t="n">
         <v>141869</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="11" t="n">
         <v>77919</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="11" t="n">
         <v>63950</v>
       </c>
     </row>
-    <row r="88" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="11" t="n">
         <v>184178</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="11" t="n">
         <v>87211</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="11" t="n">
         <v>96967</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="11" t="n">
         <v>48002</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="11" t="n">
         <v>23483</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="11" t="n">
         <v>24519</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="11" t="n">
         <v>136176</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="11" t="n">
         <v>63728</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="11" t="n">
         <v>72448</v>
       </c>
     </row>
-    <row r="89" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="11" t="n">
         <v>133756</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="11" t="n">
         <v>69833</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="11" t="n">
         <v>63923</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="11" t="n">
         <v>39725</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="11" t="n">
         <v>23572</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="11" t="n">
         <v>16153</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="11" t="n">
         <v>94031</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="11" t="n">
         <v>46261</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="11" t="n">
         <v>47770</v>
       </c>
     </row>
-    <row r="90" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="11" t="n">
         <v>168634</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="11" t="n">
         <v>87083</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="11" t="n">
         <v>81551</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="11" t="n">
         <v>81582</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="11" t="n">
         <v>43190</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="11" t="n">
         <v>38392</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="11" t="n">
         <v>87052</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="11" t="n">
         <v>43893</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="11" t="n">
         <v>43159</v>
       </c>
     </row>
-    <row r="91" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="11" t="n">
         <v>168593</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="11" t="n">
         <v>88750</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="11" t="n">
         <v>79843</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="11" t="n">
         <v>98661</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="11" t="n">
         <v>49922</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="11" t="n">
         <v>48739</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="11" t="n">
         <v>69932</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="11" t="n">
         <v>38828</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="11" t="n">
         <v>31104</v>
       </c>
     </row>
-    <row r="92" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="11" t="n">
         <v>225102</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="11" t="n">
         <v>111340</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="11" t="n">
         <v>113762</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="11" t="n">
         <v>157756</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="11" t="n">
         <v>79010</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="11" t="n">
         <v>78746</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="11" t="n">
         <v>67346</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="11" t="n">
         <v>32330</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="11" t="n">
         <v>35016</v>
       </c>
     </row>
-    <row r="93" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="11" t="n">
         <v>114724</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="11" t="n">
         <v>57081</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="11" t="n">
         <v>57643</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="11" t="n">
         <v>74985</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="11" t="n">
         <v>37558</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="11" t="n">
         <v>37427</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="11" t="n">
         <v>39739</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="11" t="n">
         <v>19523</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="11" t="n">
         <v>20216</v>
       </c>
     </row>
-    <row r="94" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="11" t="n">
         <v>458782</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="11" t="n">
         <v>231259</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="11" t="n">
         <v>227523</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="11" t="n">
         <v>311994</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="11" t="n">
         <v>159335</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="11" t="n">
         <v>152659</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="11" t="n">
         <v>146788</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="11" t="n">
         <v>71924</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="11" t="n">
         <v>74864</v>
       </c>
     </row>
-    <row r="95" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="11" t="n">
         <v>314266</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="11" t="n">
         <v>161927</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="11" t="n">
         <v>152339</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="11" t="n">
         <v>130632</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="11" t="n">
         <v>67656</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="11" t="n">
         <v>62976</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="11" t="n">
         <v>183634</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="11" t="n">
         <v>94271</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="11" t="n">
         <v>89363</v>
       </c>
     </row>
-    <row r="96" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+    <row r="98" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>